--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozan-macbook-air/Dropbox/Ordinal Regression/notebook/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="logs" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="logs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -102,30 +89,259 @@
   </si>
   <si>
     <t>rmse_test_last</t>
+  </si>
+  <si>
+    <t>October25  01:20:59</t>
+  </si>
+  <si>
+    <t>resnet34</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>1.0xsingle + 0.0Xmulti</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x1a165c0d08&gt;</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>October25  01:21:32</t>
+  </si>
+  <si>
+    <t>0.9xsingle + 0.1Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:22:11</t>
+  </si>
+  <si>
+    <t>0.8xsingle + 0.2Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:22:47</t>
+  </si>
+  <si>
+    <t>0.7xsingle + 0.30000000000000004Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:23:26</t>
+  </si>
+  <si>
+    <t>0.6xsingle + 0.4Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:24:09</t>
+  </si>
+  <si>
+    <t>0.5xsingle + 0.5Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:24:45</t>
+  </si>
+  <si>
+    <t>0.3999999999999999xsingle + 0.6000000000000001Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:25:27</t>
+  </si>
+  <si>
+    <t>0.29999999999999993xsingle + 0.7000000000000001Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:26:08</t>
+  </si>
+  <si>
+    <t>0.19999999999999996xsingle + 0.8Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:26:48</t>
+  </si>
+  <si>
+    <t>0.09999999999999998xsingle + 0.9Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:27:29</t>
+  </si>
+  <si>
+    <t>0.0xsingle + 1.0Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:28:21</t>
+  </si>
+  <si>
+    <t>&lt;function exp_lr_scheduler at 0x1a15976bf8&gt;</t>
+  </si>
+  <si>
+    <t>October25  01:28:58</t>
+  </si>
+  <si>
+    <t>October25  01:29:34</t>
+  </si>
+  <si>
+    <t>October25  01:30:13</t>
+  </si>
+  <si>
+    <t>October25  01:30:50</t>
+  </si>
+  <si>
+    <t>October25  01:31:34</t>
+  </si>
+  <si>
+    <t>October25  01:33:40</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>October25  01:34:17</t>
+  </si>
+  <si>
+    <t>October25  01:34:57</t>
+  </si>
+  <si>
+    <t>October25  01:35:35</t>
+  </si>
+  <si>
+    <t>October25  01:36:20</t>
+  </si>
+  <si>
+    <t>October25  01:36:49</t>
+  </si>
+  <si>
+    <t>October25  01:37:16</t>
+  </si>
+  <si>
+    <t>October25  01:37:58</t>
+  </si>
+  <si>
+    <t>October25  01:38:21</t>
+  </si>
+  <si>
+    <t>October25  01:38:34</t>
+  </si>
+  <si>
+    <t>October25  01:39:02</t>
+  </si>
+  <si>
+    <t>October25  01:39:11</t>
+  </si>
+  <si>
+    <t>October25  01:39:45</t>
+  </si>
+  <si>
+    <t>October25  01:40:26</t>
+  </si>
+  <si>
+    <t>October25  01:41:07</t>
+  </si>
+  <si>
+    <t>October25  01:41:49</t>
+  </si>
+  <si>
+    <t>October25  01:42:30</t>
+  </si>
+  <si>
+    <t>October25  01:43:11</t>
+  </si>
+  <si>
+    <t>October25  01:43:57</t>
+  </si>
+  <si>
+    <t>October25  01:44:40</t>
+  </si>
+  <si>
+    <t>October25  01:45:24</t>
+  </si>
+  <si>
+    <t>October25  01:46:10</t>
+  </si>
+  <si>
+    <t>October25  01:46:54</t>
+  </si>
+  <si>
+    <t>October25  01:54:18</t>
+  </si>
+  <si>
+    <t>October25  01:54:29</t>
+  </si>
+  <si>
+    <t>October25  01:56:05</t>
+  </si>
+  <si>
+    <t>October25  01:57:23</t>
+  </si>
+  <si>
+    <t>October25  01:58:20</t>
+  </si>
+  <si>
+    <t>0.7xsingle + 0.3Xmulti</t>
+  </si>
+  <si>
+    <t>October25  01:59:23</t>
+  </si>
+  <si>
+    <t>October25  02:00:10</t>
+  </si>
+  <si>
+    <t>October25  02:00:58</t>
+  </si>
+  <si>
+    <t>October25  02:01:48</t>
+  </si>
+  <si>
+    <t>October25  02:02:36</t>
+  </si>
+  <si>
+    <t>October25  02:03:23</t>
+  </si>
+  <si>
+    <t>October25  02:04:08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,23 +357,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -445,25 +655,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1048496"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="25" width="9.5" style="1" customWidth="1"/>
-    <col min="26" max="1025" width="9.5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="15.33203125"/>
+    <col customWidth="1" max="4" min="3" style="1" width="9.5"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.1640625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="10.33203125"/>
+    <col customWidth="1" max="25" min="7" style="1" width="9.5"/>
+    <col customWidth="1" max="1025" min="26" style="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="13.75" r="1" s="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,13 +754,4021 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1048496" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.01166543861782723</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01105870389938354</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3349555061179088</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.657599548296845</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.533623161014465</v>
+      </c>
+      <c r="U2" t="n">
+        <v>18</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.3349555061179088</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.657599548296845</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.533623161014465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01199365698124331</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01200324475765228</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2025862068965517</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.639508051775097</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.314153720079961</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2025862068965517</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.639508051775097</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.314153720079961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01130477999553532</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01141416525840759</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1991101223581757</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.733535290992599</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1991101223581757</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.733535290992599</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01057467176200816</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01067815768718719</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1942436040044494</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.647165293433909</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1942436040044494</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.647165293433909</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.009622347451025439</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.009428688526153564</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2526418242491658</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.6422196650429</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.227599283153912</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2526418242491658</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.6422196650429</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.227599283153912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.009150456898204477</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.009208561658859252</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2021690767519466</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.775810770666369</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2021690767519466</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.775810770666369</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.008374165540542433</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.008465406417846679</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1992491657397108</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.732331753351749</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1992491657397108</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.732331753351749</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00692035029077689</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.006419351816177368</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2972747497219133</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.346678441708158</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.066770828247567</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2972747497219133</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.346678441708158</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.066770828247567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.006882733245845366</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.006962842404842377</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1986929922135706</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.70954755315112</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1986929922135706</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.70954755315112</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="n">
+        <v>28</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.005208760499954224</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.004720343977212906</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3127085650723025</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.220651005213807</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.067239429556461</v>
+      </c>
+      <c r="U11" t="n">
+        <v>28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3127085650723025</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.220651005213807</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.067239429556461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.005341381016907358</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.005402645945549011</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.1931312569521691</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.677071710360284</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.731473361042555</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.1931312569521691</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.677071710360284</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.731473361042555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01181264016134986</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.01120286500453949</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.317853170189099</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.663377362225944</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.202497401244593</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.317853170189099</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.663377362225944</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.202497401244593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01035017293936949</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.009713609993457795</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3798665183537264</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.390516905192544</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.279062156425558</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3798665183537264</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.390516905192544</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.279062156425558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01130933096597139</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01141496300697327</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.1909065628476085</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.76430274681669</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1909065628476085</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.76430274681669</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.009264502463006603</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.008665604233741761</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3659621802002225</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.505228189383078</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.291123541726352</v>
+      </c>
+      <c r="U16" t="n">
+        <v>20</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3659621802002225</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.505228189383078</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.291123541726352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.009869934089722173</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.009945156931877136</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2057842046718576</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.923668515148472</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2057842046718576</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.923668515148472</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.008232646709819789</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.007655141949653626</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3058954393770856</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.390866840246397</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.111305538544644</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3058954393770856</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.390866840246397</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.111305538544644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01284383926892838</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.01287254226207733</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1925750834260289</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.84519789823436</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.118490028298458</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1925750834260289</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.84519789823436</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.118490028298458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01203365357089228</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.01214661920070648</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2043937708565072</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.94612503956784</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.731473361042555</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2043937708565072</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.94612503956784</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.731473361042555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01130231213781805</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01141344356536865</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.207313681868743</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.665799737451886</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.418097316829843</v>
+      </c>
+      <c r="U21" t="n">
+        <v>8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.207313681868743</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.665799737451886</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.418097316829843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01057450272747884</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.010676562666893</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.1984149054505006</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.601106750145509</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.419859147943908</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.1984149054505006</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.601106750145509</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.419859147943908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01277008919548803</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.01287534356117249</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1988320355951057</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.937137780558634</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.742699056062176</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.1988320355951057</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.937137780558634</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.742699056062176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.01286500188479567</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.01288499295711517</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1995272525027809</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.834883222575604</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.738390059796707</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1995272525027809</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.834883222575604</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.738390059796707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01276191414330772</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.01287407910823822</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.1973025583982203</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.966063581544117</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.744992836661515</v>
+      </c>
+      <c r="U25" t="n">
+        <v>7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.1973025583982203</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.966063581544117</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.744992836661515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01275778300770133</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.01287620067596435</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2050889877641824</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.323107791494187</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.154994199528157</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.2050889877641824</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.323107791494187</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.154994199528157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.01196144937275514</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01113464677333832</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3159065628476084</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.783311588721783</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.248599215120689</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.3159065628476084</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.783311588721783</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.248599215120689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01190425661103479</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01117378878593445</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3056173526140156</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.636409632391387</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.321362932732714</v>
+      </c>
+      <c r="U28" t="n">
+        <v>6</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.3056173526140156</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.636409632391387</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.321362932732714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01276019566979371</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01287731790542603</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.102060803545417</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.102060803545417</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01275917204786859</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01288333117961884</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1996662958843159</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.03965143481144</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.731473361042555</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.1996662958843159</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.03965143481144</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.731473361042555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.01116683457597875</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.01038511246442795</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3613737486095662</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.510162091941692</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.330789239511652</v>
+      </c>
+      <c r="U31" t="n">
+        <v>20</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.3613737486095662</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.510162091941692</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.330789239511652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01203446327247662</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.01214709210395813</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1956340378197998</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.930126763056846</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.1956340378197998</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.930126763056846</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01046916254038805</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.009875352025032043</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.3275862068965517</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.618983256651229</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.096813566655701</v>
+      </c>
+      <c r="U33" t="n">
+        <v>9</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.3275862068965517</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.618983256651229</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.096813566655701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01063778890385909</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01068446671962738</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1988320355951057</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.795859469642663</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1988320355951057</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.795859469642663</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.009019983573935851</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.008538132190704345</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3243882091212458</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.509839806160562</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.099545360592277</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.3243882091212458</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.509839806160562</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.099545360592277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.009135462915539344</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.009216443419456481</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1961902113459399</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.791363224599401</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1961902113459399</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.791363224599401</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.008394810544105208</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.008467049598693847</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.2014738598442714</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.546732175488659</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2014738598442714</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.546732175488659</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="n">
+        <v>17</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.006533042582640791</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.006080382287502289</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3452447163515017</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.231932834798614</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.086278049120021</v>
+      </c>
+      <c r="U38" t="n">
+        <v>17</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.3452447163515017</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.231932834798614</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.086278049120021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="n">
+        <v>21</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.005781587681528989</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.005308373749256134</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3366240266963292</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.179461331395847</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.072846680565308</v>
+      </c>
+      <c r="U39" t="n">
+        <v>21</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.3366240266963292</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.179461331395847</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.072846680565308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.006168996275001691</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.006196522653102875</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.1956340378197998</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.725415266550844</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.1956340378197998</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.725415266550844</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="n">
+        <v>38</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.004502343985607415</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.004042139798402786</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2690489432703003</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.212135063712273</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.110405331399305</v>
+      </c>
+      <c r="U41" t="n">
+        <v>38</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.2690489432703003</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.212135063712273</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.110405331399305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01280770116838916</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01287496161460876</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.1947997775305896</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.803700928967117</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.417744687875782</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.1947997775305896</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.803700928967117</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.417744687875782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" t="n">
+        <v>20</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.01112156872688332</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01031076401472092</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3688820912124583</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.424548403355917</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.317573527360048</v>
+      </c>
+      <c r="U43" t="n">
+        <v>20</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.3688820912124583</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.424548403355917</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.317573527360048</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0114680550022836</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.01067886960506439</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2880978865406006</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.87220314205398</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.202913130695646</v>
+      </c>
+      <c r="U44" t="n">
+        <v>7</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.2880978865406006</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.87220314205398</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.202913130695646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.01047998782790145</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.009914116024971008</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3121523915461624</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.573425374217465</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.207476707849886</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.3121523915461624</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.573425374217465</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.207476707849886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.009466585911420879</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.008695725619792939</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3474694104560623</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.49121453885411</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.227191916531396</v>
+      </c>
+      <c r="U46" t="n">
+        <v>10</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.3474694104560623</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.49121453885411</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.227191916531396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.009203680033678472</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.008664006590843201</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.310622914349277</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.52062205525492</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.195407880181488</v>
+      </c>
+      <c r="U47" t="n">
+        <v>7</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.310622914349277</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.52062205525492</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.195407880181488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" t="n">
+        <v>21</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.007832698689750887</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.007286188423633575</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.360678531701891</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.294024514383894</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.189957982451481</v>
+      </c>
+      <c r="U48" t="n">
+        <v>21</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.360678531701891</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.294024514383894</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.189957982451481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" t="n">
+        <v>14</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.007305147575921026</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.00672073781490326</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3484427141268076</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.289503702894075</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.083051245324985</v>
+      </c>
+      <c r="U49" t="n">
+        <v>14</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.3484427141268076</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.289503702894075</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.083051245324985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.006689178391677784</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.006169207096099853</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.3278642936596218</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.269508501496794</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.079814798935447</v>
+      </c>
+      <c r="U50" t="n">
+        <v>13</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.3278642936596218</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.269508501496794</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.079814798935447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" t="n">
+        <v>15</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.005916985151698777</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.005403601229190826</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3335650723025584</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.214942195487495</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.083512805646523</v>
+      </c>
+      <c r="U51" t="n">
+        <v>15</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.3335650723025584</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.214942195487495</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.083512805646523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N52" t="n">
+        <v>20</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.005266492430108275</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.004892581731081009</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3050611790878754</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.24428616218001</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.138419957660617</v>
+      </c>
+      <c r="U52" t="n">
+        <v>20</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.3050611790878754</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.24428616218001</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.138419957660617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" t="n">
+        <v>21</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.004518709111299876</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.004087776243686676</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.2812847608453838</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.19095824235736</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.079814798935447</v>
+      </c>
+      <c r="U53" t="n">
+        <v>21</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.2812847608453838</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.19095824235736</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.079814798935447</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="1048444" s="1" spans="1:25"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" scale="0" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>